--- a/CHECON.PCB Production Files/CHECON.PCB.BOM.xlsx
+++ b/CHECON.PCB Production Files/CHECON.PCB.BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>Qty</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
@@ -53,15 +50,18 @@
     <t>3220-20-0100-00</t>
   </si>
   <si>
+    <t>FPC</t>
+  </si>
+  <si>
+    <t>U$2</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
     <t>52745-1097</t>
   </si>
   <si>
-    <t>U$2</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
     <t>BARREL_CUI_PJ-002A</t>
   </si>
   <si>
@@ -86,9 +86,6 @@
     <t>DF12(3.0)-40DP-0.5V(86)</t>
   </si>
   <si>
-    <t>DIODE-ZENER-BZT52</t>
-  </si>
-  <si>
     <t>SOD-323</t>
   </si>
   <si>
@@ -98,7 +95,148 @@
     <t>DNP</t>
   </si>
   <si>
-    <t>FIDUCIAL</t>
+    <t>SO016</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>MAX232DR</t>
+  </si>
+  <si>
+    <t>SOT223</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>OnSemi</t>
+  </si>
+  <si>
+    <t>NCP1117ST33T3G</t>
+  </si>
+  <si>
+    <t>RA_BUTTON</t>
+  </si>
+  <si>
+    <t>U$30</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>2-1825027-0</t>
+  </si>
+  <si>
+    <t>PLCC4_SMALL</t>
+  </si>
+  <si>
+    <t>U$1</t>
+  </si>
+  <si>
+    <t>Cree, Inc.</t>
+  </si>
+  <si>
+    <t>CLV1A-FKB-CK1N1G1BB7R4S3</t>
+  </si>
+  <si>
+    <t>SO08</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SN65HVD1781DR</t>
+  </si>
+  <si>
+    <t>SO14</t>
+  </si>
+  <si>
+    <t>U$8</t>
+  </si>
+  <si>
+    <t>WorldSemi</t>
+  </si>
+  <si>
+    <t>WS2801</t>
+  </si>
+  <si>
+    <t>RF-C0805</t>
+  </si>
+  <si>
+    <t>U$36</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>CRCW08050000Z0EAHP</t>
+  </si>
+  <si>
+    <t>SC70-6L</t>
+  </si>
+  <si>
+    <t>U$4, U$5</t>
+  </si>
+  <si>
+    <t>Micrel</t>
+  </si>
+  <si>
+    <t>MIC94061YC6 TR</t>
+  </si>
+  <si>
+    <t>RJ45_SMD</t>
+  </si>
+  <si>
+    <t>POSCON, SCANNER</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>U$7, U$33</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C2012X5R1H104K085AA</t>
+  </si>
+  <si>
+    <t>U$18, U$19, U$20</t>
+  </si>
+  <si>
+    <t>CRCW080524R0FKEA</t>
+  </si>
+  <si>
+    <t>ESWITCH-TL3301PF</t>
+  </si>
+  <si>
+    <t>U$13, U$14, U$15, U$16</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>TL3301DF160QG</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>U$24, U$31, U$32, U$35</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM219R61E106KA12D</t>
   </si>
   <si>
     <t>FIDUCIAL_1MM</t>
@@ -107,183 +245,15 @@
     <t>U$38, U$39, U$40, U$41, U$42, U$43</t>
   </si>
   <si>
-    <t>MAX232SOIC16</t>
-  </si>
-  <si>
-    <t>SO016</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>MAX232DR</t>
-  </si>
-  <si>
-    <t>MIC94061C6</t>
-  </si>
-  <si>
-    <t>SC70-6L</t>
-  </si>
-  <si>
-    <t>U$4, U$5</t>
-  </si>
-  <si>
-    <t>Micrel</t>
-  </si>
-  <si>
-    <t>MIC94061YC6 TR</t>
-  </si>
-  <si>
-    <t>NCP1117ST33T3G_1</t>
-  </si>
-  <si>
-    <t>SOT223</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>OnSemi</t>
-  </si>
-  <si>
-    <t>NCP1117ST33T3G</t>
-  </si>
-  <si>
-    <t>RA_BUTTON</t>
-  </si>
-  <si>
-    <t>U$30</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>2-1825027-0</t>
-  </si>
-  <si>
-    <t>RGLBED</t>
-  </si>
-  <si>
-    <t>RGBLED</t>
-  </si>
-  <si>
-    <t>U$1</t>
-  </si>
-  <si>
-    <t>Cree, Inc.</t>
-  </si>
-  <si>
-    <t>CLV1A-FKB-CK1N1G1BB7R4S3</t>
-  </si>
-  <si>
-    <t>RJ45-8</t>
-  </si>
-  <si>
-    <t>MOLEX-0955016649</t>
-  </si>
-  <si>
-    <t>POSCON, SCANNER</t>
-  </si>
-  <si>
-    <t>RS485SOIC</t>
-  </si>
-  <si>
-    <t>SO08</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SN65HVD1781DR</t>
-  </si>
-  <si>
-    <t>SWITCH-TACTILE</t>
-  </si>
-  <si>
-    <t>ESWITCH-TL3301PF</t>
-  </si>
-  <si>
-    <t>U$13, U$14, U$15, U$16</t>
-  </si>
-  <si>
-    <t>E-Switch</t>
-  </si>
-  <si>
-    <t>TL3301DF160QG</t>
-  </si>
-  <si>
-    <t>WS2801</t>
-  </si>
-  <si>
-    <t>SO14</t>
-  </si>
-  <si>
-    <t>U$8</t>
-  </si>
-  <si>
-    <t>WorldSemi</t>
-  </si>
-  <si>
-    <t>RF-R0805</t>
-  </si>
-  <si>
-    <t>RF-C0805</t>
-  </si>
-  <si>
-    <t>U$36</t>
-  </si>
-  <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>CRCW08050000Z0EAHP</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>U$7, U$33</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>C2012X5R1H104K085AA</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>U$26, U$27, U$28, U$29</t>
+    <t>U$6, U$25, U$26, U$27, U$28, U$29</t>
   </si>
   <si>
     <t>CRCW080510K0FKEA</t>
   </si>
   <si>
-    <t>U$6, U$25</t>
-  </si>
-  <si>
-    <t>CRCW080568K0FKEA</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>U$24, U$31, U$32, U$35</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GRM219R61E106KA12D</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -291,12 +261,6 @@
   </si>
   <si>
     <t>C2012X5R1E105K125AA</t>
-  </si>
-  <si>
-    <t>U$18, U$19, U$20</t>
-  </si>
-  <si>
-    <t>CRCW080524R0FKEA</t>
   </si>
 </sst>
 </file>
@@ -403,22 +367,22 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:23"/>
+  <dimension ref="1:22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.53571428571429"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.22959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.7602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.78571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.78571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,9 +407,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
@@ -454,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
@@ -465,16 +427,13 @@
       <c r="F2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -485,9 +444,6 @@
       <c r="F3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -497,15 +453,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -517,15 +470,12 @@
         <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -539,28 +489,25 @@
       <c r="D6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,28 +526,22 @@
       <c r="F8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,19 +549,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,19 +566,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,145 +583,127 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>955016889</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>955016889</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,68 +711,53 @@
         <v>4</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,45 +765,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
